--- a/src/resources/miscellaneous/Donnees_v2.xlsx
+++ b/src/resources/miscellaneous/Donnees_v2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Livres" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="221">
   <si>
     <t>ISBN</t>
   </si>
@@ -627,6 +628,66 @@
   </si>
   <si>
     <t>Penguin Books</t>
+  </si>
+  <si>
+    <t>ID Livre</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>La Communauté de l'Anneau</t>
+  </si>
+  <si>
+    <t>Les Deux Tours</t>
+  </si>
+  <si>
+    <t>Le Retour du Roi</t>
+  </si>
+  <si>
+    <t>628715773-9</t>
+  </si>
+  <si>
+    <t>998528293-0</t>
+  </si>
+  <si>
+    <t>057453797-X</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>Le Seigneur des Anneaux</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nomSocial</t>
   </si>
 </sst>
 </file>
@@ -675,10 +736,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,1638 +1021,2331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="str">
-        <f>A2&amp;".jpg"</f>
+      <c r="G2" t="str">
+        <f>B2&amp;".jpg"</f>
         <v>018474911-5.jpg</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="Q2" t="str">
+        <f>"ren "&amp;A2&amp;".jpg "&amp;G2</f>
+        <v>ren 01.jpg 018474911-5.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F63" si="0">A3&amp;".jpg"</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">B3&amp;".jpg"</f>
         <v>177134993-X.jpg</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q63" si="1">"ren "&amp;A3&amp;".jpg "&amp;G3</f>
+        <v>ren 02.jpg 177134993-X.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>708828225-9.jpg</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 03.jpg 708828225-9.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>706256141-X.jpg</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 04.jpg 706256141-X.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>679001812-3.jpg</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 05.jpg 679001812-3.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>297153456-1.jpg</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 06.jpg 297153456-1.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>101866960-4.jpg</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 07.jpg 101866960-4.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>504283795-7.jpg</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 08.jpg 504283795-7.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>518953001-9.jpg</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 09.jpg 518953001-9.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>274329958-4.jpg</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 10.jpg 274329958-4.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>289065341-2.jpg</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 11.jpg 289065341-2.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>661122125-5.jpg</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 12.jpg 661122125-5.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>483499503-8.jpg</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 13.jpg 483499503-8.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>743103681-7.jpg</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 14.jpg 743103681-7.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>354312486-2.jpg</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 15.jpg 354312486-2.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>824334341-5.jpg</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 16.jpg 824334341-5.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>969896727-3.jpg</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 17.jpg 969896727-3.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>126301614-6.jpg</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 18.jpg 126301614-6.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>404759164-5.jpg</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 19.jpg 404759164-5.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>019849199-9.jpg</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 20.jpg 019849199-9.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>455261908-X.jpg</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 21.jpg 455261908-X.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>368909556-5.jpg</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 22.jpg 368909556-5.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>110</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>082461365-1.jpg</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 23.jpg 082461365-1.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>187618499-X.jpg</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 24.jpg 187618499-X.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>602523044-7.jpg</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 25.jpg 602523044-7.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>338427321-4.jpg</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 26.jpg 338427321-4.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>526953057-0.jpg</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 27.jpg 526953057-0.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>657141567-4.jpg</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 28.jpg 657141567-4.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>834499835-2.jpg</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 29.jpg 834499835-2.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>390939200-8.jpg</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 30.jpg 390939200-8.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>406641788-4.jpg</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 31.jpg 406641788-4.jpg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>715628208-5.jpg</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 32.jpg 715628208-5.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>122</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>630445577-1.jpg</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 33.jpg 630445577-1.jpg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>125</v>
       </c>
-      <c r="F35" t="str">
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>455967781-6.jpg</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 34.jpg 455967781-6.jpg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="F36" t="str">
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>178191153-3.jpg</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 35.jpg 178191153-3.jpg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>976152866-9.jpg</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="Q37" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 36.jpg 976152866-9.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>256597467-1.jpg</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="Q38" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 37.jpg 256597467-1.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="F39" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>416809666-1.jpg</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="Q39" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 38.jpg 416809666-1.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>132</v>
       </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>460648236-2.jpg</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="Q40" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 39.jpg 460648236-2.jpg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>134</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>455529788-1.jpg</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 40.jpg 455529788-1.jpg</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="F42" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>100928450-9.jpg</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 41.jpg 100928450-9.jpg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="F43" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>498185685-7.jpg</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 42.jpg 498185685-7.jpg</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="F44" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>117332677-4.jpg</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 43.jpg 117332677-4.jpg</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>142</v>
       </c>
-      <c r="F45" t="str">
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>955504630-1.jpg</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 44.jpg 955504630-1.jpg</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="F46" t="str">
+      <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>304173873-2.jpg</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 45.jpg 304173873-2.jpg</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>148</v>
       </c>
-      <c r="F47" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>935591713-9.jpg</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 46.jpg 935591713-9.jpg</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>400498162-X.jpg</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 47.jpg 400498162-X.jpg</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>152</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>421595393-6.jpg</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 48.jpg 421595393-6.jpg</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>153</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>490879362-X.jpg</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 49.jpg 490879362-X.jpg</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>154</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>427632648-6.jpg</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="Q51" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 50.jpg 427632648-6.jpg</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>157</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>505488956-6.jpg</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="Q52" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 51.jpg 505488956-6.jpg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>945346022-2.jpg</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="Q53" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 52.jpg 945346022-2.jpg</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="F54" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>160343028-8.jpg</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="Q54" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 53.jpg 160343028-8.jpg</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>898581942-9.jpg</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="Q55" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 54.jpg 898581942-9.jpg</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>163</v>
       </c>
-      <c r="F56" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>425042488-X.jpg</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="Q56" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 55.jpg 425042488-X.jpg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>164</v>
       </c>
-      <c r="F57" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>054526495-2.jpg</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="Q57" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 56.jpg 054526495-2.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>166</v>
       </c>
-      <c r="F58" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>217291886-5.jpg</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="Q58" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 57.jpg 217291886-5.jpg</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>169</v>
       </c>
-      <c r="F59" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>244349541-8.jpg</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="Q59" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 58.jpg 244349541-8.jpg</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>170</v>
       </c>
-      <c r="F60" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>252230642-1.jpg</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="Q60" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 59.jpg 252230642-1.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>175</v>
       </c>
-      <c r="F61" t="str">
+      <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>315555255-7.jpg</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="Q61" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 60.jpg 315555255-7.jpg</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>177</v>
       </c>
-      <c r="F62" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>265113087-7.jpg</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="Q62" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 61.jpg 265113087-7.jpg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>179</v>
       </c>
-      <c r="F63" t="str">
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>503839284-9.jpg</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>181</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="1"/>
+        <v>ren 62.jpg 503839284-9.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>628715773-9.jpg</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>998528293-0.jpg</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>057453797-X.jpg</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>